--- a/Document/3_Report/Daily_October/TuNT_Daily report - October.xlsx
+++ b/Document/3_Report/Daily_October/TuNT_Daily report - October.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HocTap\VARECO\Sicco\Document\3_Report\Daily_October\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Report" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
   <si>
     <t>Kế hoạch</t>
   </si>
@@ -58,17 +63,43 @@
   </si>
   <si>
     <t>Báo cáo công việc hàng ngày - tháng 10/2014</t>
+  </si>
+  <si>
+    <t>- Công việc 1: Thêm màn hình Settings widget và Setting cảnh báo
+- Công việc 2: Tìm hiểu requirement</t>
+  </si>
+  <si>
+    <t>- Công việc 1: Tìm hiểu thay đổi alpha widget</t>
+  </si>
+  <si>
+    <t>- Công việc 1: hoàn thành</t>
+  </si>
+  <si>
+    <t>- Vấn đề 1: Chưa giải quyết được vấn đề</t>
+  </si>
+  <si>
+    <t>- Vấn đề 1: Làm nhiều layout với độ alpha khác nhau.</t>
+  </si>
+  <si>
+    <t>Thêm màn hình cài đặt widget và cảnh báo, tìm hiểu requirement</t>
+  </si>
+  <si>
+    <t>NGHỈ</t>
+  </si>
+  <si>
+    <t>- Công việc 1: hoàn thành
+- Công việc 2: hoàn thành</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -76,7 +107,7 @@
       <b/>
       <sz val="24"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -84,12 +115,21 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,8 +148,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -158,11 +216,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -181,6 +261,36 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -241,7 +351,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -273,9 +383,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,6 +418,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -482,47 +594,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="92.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="92.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="31.5">
+    <row r="2" spans="2:3" ht="30" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="18.75">
+    <row r="4" spans="2:3" ht="18" x14ac:dyDescent="0.25">
       <c r="B4" s="6">
         <v>41921</v>
       </c>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="2:3" ht="30">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
@@ -530,64 +642,62 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
+      <c r="C8" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
-      <c r="C9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
+      <c r="C10" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="2:3" ht="18.75">
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="18" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <f>B4+1</f>
         <v>41922</v>
       </c>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="2:3" ht="30">
+    <row r="14" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>1</v>
       </c>
@@ -595,7 +705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="8" t="s">
         <v>3</v>
       </c>
@@ -603,13 +713,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
@@ -617,150 +727,156 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="2:3" ht="18.75">
-      <c r="B22" s="6">
+    <row r="22" spans="2:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="B22" s="17">
         <f>B13+1</f>
         <v>41923</v>
       </c>
-      <c r="C22" s="7"/>
-    </row>
-    <row r="23" spans="2:3" ht="30">
-      <c r="B23" s="4" t="s">
+      <c r="C22" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B23" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="30">
-      <c r="B24" s="4" t="s">
+    <row r="24" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B24" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="4" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="8" t="s">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="9"/>
-      <c r="C27" s="3" t="s">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="16"/>
+      <c r="C27" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="8" t="s">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="9"/>
-      <c r="C29" s="3" t="s">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="16"/>
+      <c r="C29" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="4" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="2:3" ht="18.75">
-      <c r="B31" s="6">
+      <c r="C30" s="20"/>
+    </row>
+    <row r="31" spans="2:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="B31" s="17">
         <f>B22+1</f>
         <v>41924</v>
       </c>
-      <c r="C31" s="7"/>
-    </row>
-    <row r="32" spans="2:3" ht="30">
-      <c r="B32" s="4" t="s">
+      <c r="C31" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B32" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="30">
-      <c r="B33" s="4" t="s">
+    <row r="33" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B33" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="4" t="s">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="8" t="s">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="9"/>
-      <c r="C36" s="3" t="s">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="16"/>
+      <c r="C36" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="8" t="s">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="9"/>
-      <c r="C38" s="3" t="s">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38" s="16"/>
+      <c r="C38" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="4" t="s">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="1"/>
+      <c r="C39" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B37:B38"/>

--- a/Document/3_Report/Daily_October/TuNT_Daily report - October.xlsx
+++ b/Document/3_Report/Daily_October/TuNT_Daily report - October.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="25">
   <si>
     <t>Kế hoạch</t>
   </si>
@@ -89,6 +89,15 @@
   <si>
     <t>- Công việc 1: hoàn thành
 - Công việc 2: hoàn thành</t>
+  </si>
+  <si>
+    <t>- Công việc 1: Tạo ex Configuer Widget</t>
+  </si>
+  <si>
+    <t>- Công việc 1: 50%</t>
+  </si>
+  <si>
+    <t>Chậm tiến độ</t>
   </si>
 </sst>
 </file>
@@ -255,31 +264,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -291,6 +276,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C39"/>
+  <dimension ref="B2:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -643,28 +652,28 @@
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="9"/>
-      <c r="C9" s="11"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="15"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="9"/>
-      <c r="C11" s="13"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="17"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
@@ -706,7 +715,7 @@
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -714,13 +723,13 @@
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="9"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -728,7 +737,7 @@
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="9"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="3" t="s">
         <v>11</v>
       </c>
@@ -740,141 +749,208 @@
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="2:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="B22" s="17">
+      <c r="B22" s="9">
         <f>B13+1</f>
         <v>41923</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="16"/>
-      <c r="C27" s="21" t="s">
+      <c r="B27" s="19"/>
+      <c r="C27" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B29" s="16"/>
-      <c r="C29" s="21" t="s">
+      <c r="B29" s="19"/>
+      <c r="C29" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="20"/>
+      <c r="C30" s="12"/>
     </row>
     <row r="31" spans="2:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="B31" s="17">
+      <c r="B31" s="9">
         <f>B22+1</f>
         <v>41924</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B36" s="16"/>
-      <c r="C36" s="21" t="s">
+      <c r="B36" s="19"/>
+      <c r="C36" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B38" s="16"/>
-      <c r="C38" s="21" t="s">
+      <c r="B38" s="19"/>
+      <c r="C38" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="20"/>
+      <c r="C39" s="12"/>
+    </row>
+    <row r="40" spans="2:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="B40" s="6">
+        <f>B31+1</f>
+        <v>41925</v>
+      </c>
+      <c r="C40" s="7"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B41" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B44" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B45" s="21"/>
+      <c r="C45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B46" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B47" s="21"/>
+      <c r="C47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="B28:B29"/>

--- a/Document/3_Report/Daily_October/TuNT_Daily report - October.xlsx
+++ b/Document/3_Report/Daily_October/TuNT_Daily report - October.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="30">
   <si>
     <t>Kế hoạch</t>
   </si>
@@ -98,6 +98,23 @@
   </si>
   <si>
     <t>Chậm tiến độ</t>
+  </si>
+  <si>
+    <t>- Công việc 1: Tạo ex Configuer Widget
+'- Công việc 2: Kết hợp với project</t>
+  </si>
+  <si>
+    <t>- Công việc 1: Hoàn thành
+'- Công Việc 2: 80%</t>
+  </si>
+  <si>
+    <t>- Vấn đề 1: Công việc 2: Chưa làm được radius background widget</t>
+  </si>
+  <si>
+    <t>- Vấn đề 1: chưa tìm ra cách giải quyết</t>
+  </si>
+  <si>
+    <t>- Tiếp tục kết hợp ex với Project</t>
   </si>
 </sst>
 </file>
@@ -276,6 +293,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -292,12 +315,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -604,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C48"/>
+  <dimension ref="B2:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -652,28 +669,28 @@
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="21"/>
-      <c r="C9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="17"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="21"/>
-      <c r="C11" s="17"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="19"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
@@ -715,7 +732,7 @@
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -723,13 +740,13 @@
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="21"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -737,7 +754,7 @@
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="21"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="3" t="s">
         <v>11</v>
       </c>
@@ -782,7 +799,7 @@
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -790,13 +807,13 @@
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="19"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="13" t="s">
@@ -804,7 +821,7 @@
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B29" s="19"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="13" t="s">
         <v>11</v>
       </c>
@@ -849,7 +866,7 @@
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="13" t="s">
@@ -857,13 +874,13 @@
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B36" s="19"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="13" t="s">
@@ -871,7 +888,7 @@
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B38" s="19"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="13" t="s">
         <v>11</v>
       </c>
@@ -914,7 +931,7 @@
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -922,13 +939,13 @@
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B45" s="21"/>
+      <c r="B45" s="15"/>
       <c r="C45" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -936,7 +953,7 @@
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B47" s="21"/>
+      <c r="B47" s="15"/>
       <c r="C47" s="3" t="s">
         <v>11</v>
       </c>
@@ -947,8 +964,73 @@
       </c>
       <c r="C48" s="1"/>
     </row>
+    <row r="49" spans="2:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="B49" s="6">
+        <f>B40+1</f>
+        <v>41926</v>
+      </c>
+      <c r="C49" s="7"/>
+    </row>
+    <row r="50" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B50" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B53" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54" s="15"/>
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B55" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B56" s="15"/>
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="C8:C9"/>

--- a/Document/3_Report/Daily_October/TuNT_Daily report - October.xlsx
+++ b/Document/3_Report/Daily_October/TuNT_Daily report - October.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="38">
   <si>
     <t>Kế hoạch</t>
   </si>
@@ -115,6 +115,35 @@
   </si>
   <si>
     <t>- Tiếp tục kết hợp ex với Project</t>
+  </si>
+  <si>
+    <t>- Vấn đề 1: Công việc 1: Chưa làm được radius background widget</t>
+  </si>
+  <si>
+    <t>- Tiếp tục hoàn thành widget công việc</t>
+  </si>
+  <si>
+    <t>- Công việc 1: Tạo ex với ColorPickerView
+'- Công việc 2: Kết hợp ex với project</t>
+  </si>
+  <si>
+    <t>- Vấn đề 1: Công việc 2: Sync github và mất dữ liệu</t>
+  </si>
+  <si>
+    <t>- Vấn đề 1: làm lại những dữ liệu bị mất</t>
+  </si>
+  <si>
+    <t>- Làm lại dữ liệu bị mất và hoàn thiện configure widget</t>
+  </si>
+  <si>
+    <t>- Công việc 1: Làm lại dữ liệu đã mất
+'- Công việc 2: hoàn thiện configure widget
+'- Công việc 3: hiển thị danh sách công việc lên widget</t>
+  </si>
+  <si>
+    <t>- Công việc 1: Hoàn thành
+'- Công Việc 2: 90%
+'- Công việc 3: Hoàn thành</t>
   </si>
 </sst>
 </file>
@@ -621,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C57"/>
+  <dimension ref="B2:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1027,8 +1056,138 @@
         <v>29</v>
       </c>
     </row>
+    <row r="58" spans="2:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="B58" s="6">
+        <f>B49+1</f>
+        <v>41927</v>
+      </c>
+      <c r="C58" s="7"/>
+    </row>
+    <row r="59" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B59" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B61" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B62" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B63" s="15"/>
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B64" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B65" s="15"/>
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="B67" s="6">
+        <f>B58+1</f>
+        <v>41928</v>
+      </c>
+      <c r="C67" s="7"/>
+    </row>
+    <row r="68" spans="2:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B68" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B71" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B72" s="15"/>
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B73" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B74" s="15"/>
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="18">
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B73:B74"/>
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="B44:B45"/>

--- a/Document/3_Report/Daily_October/TuNT_Daily report - October.xlsx
+++ b/Document/3_Report/Daily_October/TuNT_Daily report - October.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="44">
   <si>
     <t>Kế hoạch</t>
   </si>
@@ -144,6 +144,28 @@
     <t>- Công việc 1: Hoàn thành
 '- Công Việc 2: 90%
 '- Công việc 3: Hoàn thành</t>
+  </si>
+  <si>
+    <t>- Công việc 1: Hoàn thành
+'- Công Việc 2: Hoàn thành
+'- Công việc 3: Hoàn thành</t>
+  </si>
+  <si>
+    <t>- Làm API chi tiết Công việc, Tìm kiếm</t>
+  </si>
+  <si>
+    <t>- Công việc 1: Hoàn thiện configure widget
+'- Công việc 2: Click item trên listview của widget
+'- Công việc 3: Update api công việc và công văn</t>
+  </si>
+  <si>
+    <t>- Công việc 1: Chuyển id của công việc khi click vào item sang màn hình chi tiết công việc</t>
+  </si>
+  <si>
+    <t>- Chuyển id của công việc khi click vào item sang màn hình chi tiết công việc</t>
+  </si>
+  <si>
+    <t>- Công việc 1: Hoàn thành</t>
   </si>
 </sst>
 </file>
@@ -650,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C75"/>
+  <dimension ref="B2:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1182,14 +1204,199 @@
         <v>31</v>
       </c>
     </row>
+    <row r="76" spans="2:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="B76" s="6">
+        <f>B67+1</f>
+        <v>41929</v>
+      </c>
+      <c r="C76" s="7"/>
+    </row>
+    <row r="77" spans="2:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B77" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B78" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B79" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B80" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B81" s="15"/>
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B82" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B83" s="15"/>
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B84" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="B85" s="6">
+        <f>B76+1</f>
+        <v>41930</v>
+      </c>
+      <c r="C85" s="7"/>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B86" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B88" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B89" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B90" s="15"/>
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B91" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B92" s="15"/>
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B93" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="B94" s="9">
+        <f>B85+1</f>
+        <v>41931</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B95" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B96" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B97" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B98" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B99" s="21"/>
+      <c r="C99" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B100" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B101" s="21"/>
+      <c r="C101" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B102" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
+  <mergeCells count="24">
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B98:B99"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="C8:C9"/>
@@ -1202,6 +1409,12 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Document/3_Report/Daily_October/TuNT_Daily report - October.xlsx
+++ b/Document/3_Report/Daily_October/TuNT_Daily report - October.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="51">
   <si>
     <t>Kế hoạch</t>
   </si>
@@ -166,6 +166,29 @@
   </si>
   <si>
     <t>- Công việc 1: Hoàn thành</t>
+  </si>
+  <si>
+    <t>- Công việc 1: Update and fix DBController
+'- Công việc 2: Add "Xem thêm" in widget cong viec</t>
+  </si>
+  <si>
+    <t>- Công việc 1: Hoàn thành
+'- Công Việc 2: Hoàn thành</t>
+  </si>
+  <si>
+    <t>- Công việc 1: Loadmore in TatCaCongViecActivity.java</t>
+  </si>
+  <si>
+    <t>- Công việc 1: Làm API chi tiết Công việc, Tìm kiếm</t>
+  </si>
+  <si>
+    <t>- Công việc 1: Không hoàn thành</t>
+  </si>
+  <si>
+    <t>- Thay đổi yêu cầu, không làm theo hướng lấy chi tiết công việc từ server theo id</t>
+  </si>
+  <si>
+    <t>- Thay vì lấy chi tiết công việc trên server thì load dữ liệu của  tất cả các công việc được hiển thị từ trước rồi lấy ra</t>
   </si>
 </sst>
 </file>
@@ -344,6 +367,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -361,12 +390,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C102"/>
+  <dimension ref="B2:C165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="C158" sqref="C158:C165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -720,28 +743,28 @@
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="15"/>
-      <c r="C9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="19"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="15"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="21"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
@@ -783,7 +806,7 @@
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -791,13 +814,13 @@
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="15"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -805,7 +828,7 @@
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="15"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="3" t="s">
         <v>11</v>
       </c>
@@ -850,7 +873,7 @@
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -858,13 +881,13 @@
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="21"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="13" t="s">
@@ -872,7 +895,7 @@
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B29" s="21"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="13" t="s">
         <v>11</v>
       </c>
@@ -917,7 +940,7 @@
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="13" t="s">
@@ -925,13 +948,13 @@
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B36" s="21"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="13" t="s">
@@ -939,7 +962,7 @@
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B38" s="21"/>
+      <c r="B38" s="15"/>
       <c r="C38" s="13" t="s">
         <v>11</v>
       </c>
@@ -982,7 +1005,7 @@
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -990,13 +1013,13 @@
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B45" s="15"/>
+      <c r="B45" s="17"/>
       <c r="C45" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -1004,7 +1027,7 @@
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B47" s="15"/>
+      <c r="B47" s="17"/>
       <c r="C47" s="3" t="s">
         <v>11</v>
       </c>
@@ -1047,7 +1070,7 @@
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -1055,11 +1078,11 @@
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B54" s="15"/>
+      <c r="B54" s="17"/>
       <c r="C54" s="3"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -1067,7 +1090,7 @@
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B56" s="15"/>
+      <c r="B56" s="17"/>
       <c r="C56" s="3"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.2">
@@ -1110,7 +1133,7 @@
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -1118,11 +1141,11 @@
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B63" s="15"/>
+      <c r="B63" s="17"/>
       <c r="C63" s="3"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C64" s="3" t="s">
@@ -1130,7 +1153,7 @@
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B65" s="15"/>
+      <c r="B65" s="17"/>
       <c r="C65" s="3"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
@@ -1173,7 +1196,7 @@
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C71" s="3" t="s">
@@ -1181,11 +1204,11 @@
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B72" s="15"/>
+      <c r="B72" s="17"/>
       <c r="C72" s="3"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C73" s="3" t="s">
@@ -1193,7 +1216,7 @@
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B74" s="15"/>
+      <c r="B74" s="17"/>
       <c r="C74" s="3"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.2">
@@ -1236,23 +1259,23 @@
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C80" s="3"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B81" s="15"/>
+      <c r="B81" s="17"/>
       <c r="C81" s="3"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C82" s="3"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B83" s="15"/>
+      <c r="B83" s="17"/>
       <c r="C83" s="3"/>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.2">
@@ -1295,23 +1318,23 @@
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C89" s="3"/>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B90" s="15"/>
+      <c r="B90" s="17"/>
       <c r="C90" s="3"/>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="3"/>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B92" s="15"/>
+      <c r="B92" s="17"/>
       <c r="C92" s="3"/>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.2">
@@ -1356,7 +1379,7 @@
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B98" s="20" t="s">
+      <c r="B98" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C98" s="13" t="s">
@@ -1364,13 +1387,13 @@
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B99" s="21"/>
+      <c r="B99" s="15"/>
       <c r="C99" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B100" s="20" t="s">
+      <c r="B100" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C100" s="13" t="s">
@@ -1378,7 +1401,7 @@
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B101" s="21"/>
+      <c r="B101" s="15"/>
       <c r="C101" s="13" t="s">
         <v>11</v>
       </c>
@@ -1389,14 +1412,419 @@
       </c>
       <c r="C102" s="12"/>
     </row>
+    <row r="103" spans="2:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="B103" s="6">
+        <f>B94+1</f>
+        <v>41932</v>
+      </c>
+      <c r="C103" s="7"/>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B104" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B105" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B106" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B107" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B108" s="17"/>
+      <c r="C108" s="3"/>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B109" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B110" s="17"/>
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B111" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="1"/>
+    </row>
+    <row r="112" spans="2:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="B112" s="6">
+        <f>B103+1</f>
+        <v>41933</v>
+      </c>
+      <c r="C112" s="7"/>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B113" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B114" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B115" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B116" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B117" s="17"/>
+      <c r="C117" s="3"/>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B118" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" s="3"/>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B119" s="17"/>
+      <c r="C119" s="3"/>
+    </row>
+    <row r="120" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B120" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="B121" s="6">
+        <f>B112+1</f>
+        <v>41934</v>
+      </c>
+      <c r="C121" s="7"/>
+    </row>
+    <row r="122" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B122" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B123" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B124" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B125" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B126" s="17"/>
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B127" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B128" s="17"/>
+      <c r="C128" s="3"/>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B129" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="B130" s="6">
+        <f>B121+1</f>
+        <v>41935</v>
+      </c>
+      <c r="C130" s="7"/>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B131" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" s="2"/>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B132" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" s="2"/>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B133" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" s="1"/>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B134" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B135" s="17"/>
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B136" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B137" s="17"/>
+      <c r="C137" s="3"/>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B138" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="3"/>
+    </row>
+    <row r="139" spans="2:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="B139" s="6">
+        <f>B130+1</f>
+        <v>41936</v>
+      </c>
+      <c r="C139" s="7"/>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B140" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C140" s="2"/>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B141" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" s="2"/>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B142" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C142" s="1"/>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B143" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" s="3"/>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B144" s="17"/>
+      <c r="C144" s="3"/>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B145" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C145" s="3"/>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B146" s="17"/>
+      <c r="C146" s="3"/>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B147" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" s="3"/>
+    </row>
+    <row r="148" spans="2:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="B148" s="9">
+        <f>B139+1</f>
+        <v>41937</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B149" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C149" s="11"/>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B150" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" s="11"/>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B151" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C151" s="12"/>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B152" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" s="13"/>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B153" s="15"/>
+      <c r="C153" s="13"/>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B154" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C154" s="13"/>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B155" s="15"/>
+      <c r="C155" s="13"/>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B156" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" s="12"/>
+    </row>
+    <row r="157" spans="2:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="B157" s="9">
+        <f>B148+1</f>
+        <v>41938</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B158" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C158" s="11"/>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B159" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C159" s="11"/>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B160" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C160" s="12"/>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B161" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" s="13"/>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B162" s="15"/>
+      <c r="C162" s="13"/>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B163" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C163" s="13"/>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B164" s="15"/>
+      <c r="C164" s="13"/>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B165" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="B98:B99"/>
+  <mergeCells count="38">
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="C8:C9"/>
@@ -1409,12 +1837,12 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B98:B99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Document/3_Report/Daily_October/TuNT_Daily report - October.xlsx
+++ b/Document/3_Report/Daily_October/TuNT_Daily report - October.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="56">
   <si>
     <t>Kế hoạch</t>
   </si>
@@ -189,6 +189,24 @@
   </si>
   <si>
     <t>- Thay vì lấy chi tiết công việc trên server thì load dữ liệu của  tất cả các công việc được hiển thị từ trước rồi lấy ra</t>
+  </si>
+  <si>
+    <t>-  50%</t>
+  </si>
+  <si>
+    <t>- Hoàn thiện 2 widget
++ Update widget khi có cảnh báo
++ Chỉnh sửa lại giao diện widget</t>
+  </si>
+  <si>
+    <t>-Công việc 1:  Hoàn thiện 2 widget
+'- Công việc 2: Làm API tìm kiếm</t>
+  </si>
+  <si>
+    <t>Update API công việc</t>
+  </si>
+  <si>
+    <t>Hoàn thành</t>
   </si>
 </sst>
 </file>
@@ -342,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -390,6 +408,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -697,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="C158" sqref="C158:C165"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1567,9 +1588,7 @@
       <c r="B125" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C125" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="C125" s="3"/>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B126" s="17"/>
@@ -1579,9 +1598,7 @@
       <c r="B127" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C127" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="C127" s="3"/>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B128" s="17"/>
@@ -1591,9 +1608,7 @@
       <c r="B129" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C129" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="C129" s="3"/>
     </row>
     <row r="130" spans="2:3" ht="18" x14ac:dyDescent="0.25">
       <c r="B130" s="6">
@@ -1602,23 +1617,29 @@
       </c>
       <c r="C130" s="7"/>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B131" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C131" s="2"/>
+      <c r="C131" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B132" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C132" s="2"/>
+      <c r="C132" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B133" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C133" s="1"/>
+      <c r="C133" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B134" s="16" t="s">
@@ -1653,23 +1674,29 @@
       </c>
       <c r="C139" s="7"/>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B140" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C140" s="2"/>
-    </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C140" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B141" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C141" s="2"/>
+      <c r="C141" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B142" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C142" s="1"/>
+      <c r="C142" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B143" s="16" t="s">
@@ -1695,57 +1722,65 @@
       <c r="B147" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C147" s="3"/>
+      <c r="C147" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="148" spans="2:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="B148" s="9">
+      <c r="B148" s="6">
         <f>B139+1</f>
         <v>41937</v>
       </c>
-      <c r="C148" s="10" t="s">
+      <c r="C148" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B149" s="8" t="s">
+      <c r="B149" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C149" s="11"/>
+      <c r="C149" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B150" s="8" t="s">
+      <c r="B150" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C150" s="11"/>
+      <c r="C150" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B151" s="8" t="s">
+      <c r="B151" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C151" s="12"/>
+      <c r="C151" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B152" s="14" t="s">
+      <c r="B152" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C152" s="13"/>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B153" s="15"/>
+      <c r="B153" s="17"/>
       <c r="C153" s="13"/>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B154" s="14" t="s">
+      <c r="B154" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C154" s="13"/>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B155" s="15"/>
+      <c r="B155" s="17"/>
       <c r="C155" s="13"/>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B156" s="8" t="s">
+      <c r="B156" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C156" s="12"/>
@@ -1805,26 +1840,12 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B98:B99"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="C8:C9"/>
@@ -1837,12 +1858,26 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B145:B146"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
